--- a/需求文档.xlsx
+++ b/需求文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,19 +160,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户表User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实体类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,12 +210,288 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>商家表business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_name</t>
+  </si>
+  <si>
+    <t>bus_img</t>
+  </si>
+  <si>
+    <t>bus_grade</t>
+  </si>
+  <si>
+    <t>sales_per_month</t>
+  </si>
+  <si>
+    <t>min_delivery</t>
+  </si>
+  <si>
+    <t>delivery_cost_day</t>
+  </si>
+  <si>
+    <t>delivery_cost_night</t>
+  </si>
+  <si>
+    <t>consume_per_head</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>商家图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日间配送费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜间配送费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesPerMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryCostDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryCostNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumePerHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（40）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE `business_info` (
+  `bus_id` int(11) NOT NULL auto_increment,
+  `bus_name` varchar(16) character set utf8 default NULL,
+  `bus_img` varchar(40) character set utf8 default NULL,
+  `bus_grade` int(11) default NULL,
+  `sales_per_month` double default NULL,
+  `min_delivery` double default NULL,
+  `delivery_cost_day` double default NULL,
+  `delivery_cost_night` double default NULL,
+  `consume_per_head` double default NULL,
+  `debit` int(11) default NULL,
+  `distance` double default NULL,
+  PRIMARY KEY  (`bus_id`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家分类表BusinessType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家分类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜点饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市便利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type_id</t>
+  </si>
+  <si>
+    <t>bus_type_food</t>
+  </si>
+  <si>
+    <t>bus_type_dessdrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type_market</t>
+  </si>
+  <si>
+    <t>bus_type_medicine</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessDrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `business_type` (
+  `bus_type_id` int(11) NOT NULL auto_increment,
+  `bus_type_food` varchar(40) character set utf8 default NULL,
+  `bus_type_dessdrink` varchar(40) character set utf8 default NULL,
+  `bus_type_market` varchar(40) character set utf8 default NULL,
+  `bus_type_vegfruit` varchar(40) character set utf8 default NULL,
+  `bus_type_medicine` varchar(40) character set utf8 default NULL,
+  PRIMARY KEY  (`bus_type_id`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type_vegfruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegFruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +511,15 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -305,36 +578,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,17 +979,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="19" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -661,7 +1003,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -688,125 +1030,455 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -816,104 +1488,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="13.125" style="2"/>
+    <col min="1" max="16384" width="18.625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C2" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:E27"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:C2"/>
